--- a/Homrwork BKI Ray/Human Resource (Renault).xlsx
+++ b/Homrwork BKI Ray/Human Resource (Renault).xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Assignments\Homrwork BKI Ray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFC9821-C5B4-4199-9FF2-A9CA7FE938A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E61770F-AF4A-42A8-807B-814F8620576B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A9E0F1D5-854F-49CB-A083-8CB6F855CB21}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{A9E0F1D5-854F-49CB-A083-8CB6F855CB21}"/>
   </bookViews>
   <sheets>
     <sheet name="Script" sheetId="1" r:id="rId1"/>
     <sheet name="Output" sheetId="2" r:id="rId2"/>
+    <sheet name="hello" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Output!$A$1:$L$28</definedName>
@@ -1661,7 +1662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87369DD0-930C-49EE-9148-3141C8FC4DF3}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -2824,6 +2825,26 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA07CAA-CFB5-4103-A167-23BD210D6055}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2999,18 +3020,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3033,6 +3054,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB3404B5-161E-4937-88DC-B16857B49BBD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9407BABD-2789-4511-9A24-0744ED9FF91C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3047,12 +3076,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB3404B5-161E-4937-88DC-B16857B49BBD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>